--- a/data/raw/files28/al-pa-02-12-30-233-f.xlsx
+++ b/data/raw/files28/al-pa-02-12-30-233-f.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,149 +360,149 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date and time</t>
+          <t>Sat, 25 Mar 2023 10:56:29</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>question_context (multipleChoice)</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>question_dec1 (multipleChoice)</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>question_sad (smiley)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>question_dec3 (multipleChoice)</t>
+          <t>Moderatamente falso...5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>question2scs (multipleChoice)</t>
+          <t>Moderatamente falso...6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>question_nervous (smiley)</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>question_dec2 (multipleChoice)</t>
+          <t>Leggermente falso...8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>question3scs (multipleChoice)</t>
+          <t>Leggermente vero...9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>question_satisfied (smiley)</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>question5scs (multipleChoice)</t>
+          <t>Leggermente falso...11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>question8scs (multipleChoice)</t>
+          <t>Moderatamente falso...12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>question_dec4 (multipleChoice)</t>
+          <t>Leggermente vero...13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>question_happiness (smiley)</t>
+          <t>84</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>question1scs (multipleChoice)</t>
+          <t>Totalmente vero...15</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>question7scs (multipleChoice)</t>
+          <t>Totalmente vero...16</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>question6scs (multipleChoice)</t>
+          <t>Totalmente vero...17</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>question4scs (multipleChoice)</t>
+          <t>Leggermente falso...18</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>question_emotion (multiSmiley)</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>yesnoexam (yesno)</t>
+          <t>...20</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_yes (multiSmiley)</t>
+          <t>...21</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>exam_preparation (sliderNegPos)</t>
+          <t>...22</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>grade_exp (sliderNeutralPos)</t>
+          <t>...23</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_no (multiSmiley)</t>
+          <t>...24</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_no (smiley)</t>
+          <t>...25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>real_grade (sliderNeutralPos)</t>
+          <t>...26</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_yes (smiley)</t>
+          <t>...27</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 10:56:29</t>
+          <t>Sat, 25 Mar 2023 15:10:44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -511,37 +511,37 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -551,11 +551,11 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -569,12 +569,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -586,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 15:10:44</t>
+          <t>Sat, 25 Mar 2023 17:49:33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,15 +596,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="N3">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -675,12 +675,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 17:49:33</t>
+          <t>Sat, 25 Mar 2023 19:22:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N4">
@@ -742,7 +742,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -764,12 +764,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 19:22:15</t>
+          <t>Sat, 25 Mar 2023 21:15:25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 21:15:25</t>
+          <t>Sat, 01 Apr 2023 11:38:01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -867,20 +867,20 @@
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 11:38:01</t>
+          <t>Sat, 01 Apr 2023 14:26:17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -965,11 +965,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="J7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1031,7 +1031,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 14:26:17</t>
+          <t>Sat, 01 Apr 2023 17:03:32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 17:03:32</t>
+          <t>Sat, 01 Apr 2023 19:52:29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="D9">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 19:52:29</t>
+          <t>Sat, 01 Apr 2023 21:54:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1219,15 +1219,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1258,16 +1258,16 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1298,12 +1298,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 21:54:36</t>
+          <t>Sat, 08 Apr 2023 10:10:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1312,82 +1312,82 @@
         </is>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N11">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 10:10:30</t>
+          <t>Sat, 08 Apr 2023 14:24:05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1397,11 +1397,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="G12">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1423,11 +1423,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1445,21 +1445,21 @@
         </is>
       </c>
       <c r="N12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 14:24:05</t>
+          <t>Sat, 08 Apr 2023 17:44:31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1499,11 +1499,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G13">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1558,41 +1558,41 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 17:44:31</t>
+          <t>Sat, 08 Apr 2023 19:30:41</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G14">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="N14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1654,38 +1654,38 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 19:30:41</t>
+          <t>Sat, 08 Apr 2023 21:37:26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="G15">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1694,39 +1694,39 @@
         </is>
       </c>
       <c r="J15">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear, sad</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 21:37:26</t>
+          <t>Sat, 15 Apr 2023 10:25:08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1753,59 +1753,59 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G16">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1825,32 +1825,32 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>fear, sad</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 10:25:08</t>
+          <t>Sat, 15 Apr 2023 14:02:14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1859,16 +1859,16 @@
         </is>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J17">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1890,21 +1890,21 @@
         </is>
       </c>
       <c r="N17">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1914,32 +1914,32 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 14:02:14</t>
+          <t>Sat, 15 Apr 2023 17:34:32</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1948,24 +1948,24 @@
         </is>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1975,42 +1975,42 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N18">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 17:34:32</t>
+          <t>Sat, 15 Apr 2023 19:28:19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2024,24 +2024,24 @@
         </is>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2050,11 +2050,11 @@
         </is>
       </c>
       <c r="J19">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N19">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2077,60 +2077,60 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>fear, surprise</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 19:28:19</t>
+          <t>Sat, 15 Apr 2023 21:18:22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2139,11 +2139,11 @@
         </is>
       </c>
       <c r="J20">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2153,56 +2153,56 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N20">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>fear, surprise</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 21:18:22</t>
+          <t>Sun, 16 Apr 2023 20:10:17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2215,11 +2215,11 @@
         </is>
       </c>
       <c r="G21">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2228,61 +2228,80 @@
         </is>
       </c>
       <c r="J21">
+        <v>56</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N21">
+        <v>57</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V21">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
+      <c r="W21">
+        <v>18</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sun, 16 Apr 2023 20:10:17</t>
+          <t>Mon, 17 Apr 2023 20:45:58</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2291,20 +2310,20 @@
         </is>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2317,16 +2336,16 @@
         </is>
       </c>
       <c r="J22">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2335,7 +2354,7 @@
         </is>
       </c>
       <c r="N22">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2344,7 +2363,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2354,65 +2373,62 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>18</v>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="Y22">
-        <v>14</v>
+      <c r="Z22">
+        <v>50</v>
+      </c>
+      <c r="AA22">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mon, 17 Apr 2023 20:45:58</t>
+          <t>Sat, 22 Apr 2023 10:49:29</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2421,11 +2437,11 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J23">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2434,16 +2450,16 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N23">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2452,7 +2468,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2462,94 +2478,78 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z23">
-        <v>50</v>
-      </c>
-      <c r="AA23">
-        <v>33</v>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 10:49:29</t>
+          <t>Sat, 22 Apr 2023 14:52:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>88</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="N24">
         <v>15</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="G24">
-        <v>19</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="J24">
-        <v>28</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="N24">
-        <v>54</v>
-      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>Leggermente vero</t>
@@ -2557,17 +2557,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2579,7 +2579,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 14:52:34</t>
+          <t>Sat, 22 Apr 2023 17:32:42</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2589,41 +2589,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G25">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J25">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2633,11 +2633,11 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N25">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2646,73 +2646,73 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 17:32:42</t>
+          <t>Sat, 22 Apr 2023 19:48:43</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J26">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2726,16 +2726,16 @@
         </is>
       </c>
       <c r="N26">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2745,24 +2745,24 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 19:48:43</t>
+          <t>Sat, 22 Apr 2023 21:25:15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2771,20 +2771,20 @@
         </is>
       </c>
       <c r="D27">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G27">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="J27">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2824,12 +2824,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2846,7 +2846,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 21:25:15</t>
+          <t>Sat, 29 Apr 2023 15:00:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2860,11 +2860,11 @@
         </is>
       </c>
       <c r="D28">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2873,38 +2873,38 @@
         </is>
       </c>
       <c r="G28">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2935,17 +2935,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 15:00:06</t>
+          <t>Sat, 29 Apr 2023 17:43:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Molto spiacevole</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="D29">
@@ -2953,29 +2953,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="G29">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J29">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2984,25 +2984,25 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="N29">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3017,19 +3017,19 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>sad, stress</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 17:43:55</t>
+          <t>Sat, 29 Apr 2023 19:21:10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Molto spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3038,24 +3038,24 @@
         </is>
       </c>
       <c r="D30">
+        <v>94</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Totalmente falso</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="G30">
         <v>100</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Totalmente vero</t>
-        </is>
-      </c>
-      <c r="G30">
-        <v>93</v>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3086,17 +3086,17 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3106,14 +3106,14 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>sad, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 19:21:10</t>
+          <t>Sat, 29 Apr 2023 21:45:37</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3123,11 +3123,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D31">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3136,15 +3136,15 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3157,30 +3157,30 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3195,14 +3195,14 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 21:45:37</t>
+          <t>Sat, 06 May 2023 10:27:53</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3212,55 +3212,55 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D32">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N32">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3269,17 +3269,17 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3291,84 +3291,84 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 10:27:53</t>
+          <t>Sat, 06 May 2023 14:38:59</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G33">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J33">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3380,12 +3380,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 14:38:59</t>
+          <t>Sat, 06 May 2023 17:18:11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3394,11 +3394,11 @@
         </is>
       </c>
       <c r="D34">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3407,29 +3407,29 @@
         </is>
       </c>
       <c r="G34">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J34">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3438,43 +3438,43 @@
         </is>
       </c>
       <c r="N34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 17:18:11</t>
+          <t>Sat, 06 May 2023 19:34:14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3483,11 +3483,11 @@
         </is>
       </c>
       <c r="D35">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3496,11 +3496,11 @@
         </is>
       </c>
       <c r="G35">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3509,16 +3509,16 @@
         </is>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3527,11 +3527,11 @@
         </is>
       </c>
       <c r="N35">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3541,12 +3541,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 19:34:14</t>
+          <t>Sat, 06 May 2023 21:24:41</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3572,20 +3572,20 @@
         </is>
       </c>
       <c r="D36">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G36">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3594,11 +3594,11 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="N36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>stress, sad</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 21:24:41</t>
+          <t>Sat, 13 May 2023 10:49:33</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D37">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G37">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
         </is>
       </c>
       <c r="J37">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3705,16 +3705,16 @@
         </is>
       </c>
       <c r="N37">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3724,19 +3724,19 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>stress, sad</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 10:49:33</t>
+          <t>Sat, 13 May 2023 15:34:28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3746,11 +3746,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D38">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3759,24 +3759,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G38">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J38">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3794,11 +3794,11 @@
         </is>
       </c>
       <c r="N38">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 15:34:28</t>
+          <t>Sat, 13 May 2023 17:28:56</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3835,11 +3835,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D39">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3865,16 +3865,16 @@
         </is>
       </c>
       <c r="J39">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="N39">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3897,12 +3897,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3914,7 +3914,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 17:28:56</t>
+          <t>Sat, 13 May 2023 19:29:52</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3924,15 +3924,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3941,20 +3941,20 @@
         </is>
       </c>
       <c r="G40">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J40">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="N40">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3981,29 +3981,29 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>sad, stress</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 19:29:52</t>
+          <t>Sat, 13 May 2023 21:41:24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4013,11 +4013,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D41">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4026,15 +4026,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G41">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4043,39 +4043,39 @@
         </is>
       </c>
       <c r="J41">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N41">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4085,14 +4085,14 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>sad, stress</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 21:41:24</t>
+          <t>Sat, 20 May 2023 11:21:20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4102,11 +4102,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4119,38 +4119,38 @@
         </is>
       </c>
       <c r="G42">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J42">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N42">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4159,47 +4159,47 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>sad, stress</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 11:21:20</t>
+          <t>Sat, 20 May 2023 15:03:10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D43">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4208,20 +4208,20 @@
         </is>
       </c>
       <c r="G43">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J43">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4235,11 +4235,11 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N43">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4248,34 +4248,34 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>sad, stress</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 15:03:10</t>
+          <t>Sat, 20 May 2023 19:01:26</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4297,11 +4297,11 @@
         </is>
       </c>
       <c r="G44">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4310,11 +4310,11 @@
         </is>
       </c>
       <c r="J44">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="N44">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4359,12 +4359,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 19:01:26</t>
+          <t>Sat, 20 May 2023 22:26:37</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4373,20 +4373,20 @@
         </is>
       </c>
       <c r="D45">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G45">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4395,15 +4395,15 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J45">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="N45">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4431,24 +4431,24 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>sad, happy</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 22:26:37</t>
+          <t>Sun, 21 May 2023 20:24:52</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4462,92 +4462,111 @@
         </is>
       </c>
       <c r="D46">
+        <v>31</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="G46">
+        <v>23</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Totalmente vero</t>
+        </is>
+      </c>
+      <c r="J46">
+        <v>64</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N46">
+        <v>73</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V46">
+        <v>31</v>
+      </c>
+      <c r="W46">
         <v>45</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="G46">
-        <v>57</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="J46">
-        <v>59</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="N46">
-        <v>58</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>sad, happy</t>
-        </is>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sun, 21 May 2023 20:24:52</t>
+          <t>Mon, 22 May 2023 20:19:14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="D47">
@@ -4555,29 +4574,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G47">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J47">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4586,7 +4605,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4595,7 +4614,7 @@
         </is>
       </c>
       <c r="N47">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4604,48 +4623,45 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V47">
-        <v>31</v>
-      </c>
-      <c r="W47">
-        <v>45</v>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="Y47">
-        <v>22</v>
+      <c r="Z47">
+        <v>28</v>
+      </c>
+      <c r="AA47">
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mon, 22 May 2023 20:19:14</t>
+          <t>Tue, 23 May 2023 20:20:45</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4655,11 +4671,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4668,24 +4684,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J48">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4699,15 +4715,15 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N48">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4717,7 +4733,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4727,35 +4743,38 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V48">
+        <v>50</v>
+      </c>
+      <c r="W48">
+        <v>69</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
           <t>happy</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z48">
-        <v>28</v>
-      </c>
-      <c r="AA48">
-        <v>66</v>
+      <c r="Y48">
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tue, 23 May 2023 20:20:45</t>
+          <t>Wed, 24 May 2023 21:22:27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4764,55 +4783,55 @@
         </is>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G49">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J49">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N49">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4822,7 +4841,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4841,10 +4860,10 @@
         </is>
       </c>
       <c r="V49">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="W49">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -4852,13 +4871,13 @@
         </is>
       </c>
       <c r="Y49">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Wed, 24 May 2023 21:22:27</t>
+          <t>Thu, 25 May 2023 20:31:55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4868,28 +4887,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="G50">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4898,7 +4917,7 @@
         </is>
       </c>
       <c r="J50">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4907,7 +4926,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4916,7 +4935,7 @@
         </is>
       </c>
       <c r="N50">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4925,202 +4944,183 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V50">
-        <v>33</v>
-      </c>
-      <c r="W50">
-        <v>38</v>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="Y50">
-        <v>70</v>
+      <c r="Z50">
+        <v>100</v>
+      </c>
+      <c r="AA50">
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Thu, 25 May 2023 20:31:55</t>
+          <t>Sat, 27 May 2023 10:30:25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D51">
+        <v>35</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="G51">
         <v>26</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>19</v>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J51">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N51">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z51">
-        <v>100</v>
-      </c>
-      <c r="AA51">
-        <v>72</v>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 10:30:25</t>
+          <t>Sat, 27 May 2023 14:05:55</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D52">
+        <v>62</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Totalmente falso</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>41</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="J52">
         <v>35</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>26</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="J52">
-        <v>4</v>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="N52">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5160,21 +5160,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 14:05:55</t>
+          <t>Sat, 27 May 2023 17:10:34</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D53">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5183,15 +5183,15 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G53">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5200,11 +5200,11 @@
         </is>
       </c>
       <c r="J53">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="N53">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5249,114 +5249,114 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 17:10:34</t>
+          <t>Sat, 27 May 2023 21:54:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="D54">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G54">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N54">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 21:54:00</t>
+          <t>Sat, 03 Jun 2023 11:08:12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5365,38 +5365,38 @@
         </is>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J55">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N55">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5405,17 +5405,17 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5427,96 +5427,96 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 11:08:12</t>
+          <t>Sat, 03 Jun 2023 17:18:36</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D56">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G56">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J56">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N56">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 17:18:36</t>
+          <t>Sat, 03 Jun 2023 19:00:22</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5526,24 +5526,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="D57">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="G57">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5552,15 +5552,15 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J57">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -5574,16 +5574,16 @@
         </is>
       </c>
       <c r="N57">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5605,21 +5605,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 19:00:22</t>
+          <t>Sat, 03 Jun 2023 21:27:27</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D58">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G58">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5641,15 +5641,15 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J58">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5659,122 +5659,33 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N58">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sat, 03 Jun 2023 21:27:27</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Piacevole</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>28</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="G59">
-        <v>62</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="J59">
-        <v>31</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="N59">
-        <v>37</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
         <is>
           <t>sad</t>
         </is>
